--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>学习 github 的搜索技巧</t>
+  </si>
+  <si>
+    <t>试用 VuePress</t>
   </si>
   <si>
     <t>待排任务：
@@ -135,17 +138,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -165,6 +176,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,98 +265,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,19 +287,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,49 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,109 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,30 +504,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,147 +587,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,10 +765,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1092,7 +1113,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1133,10 +1154,10 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1153,215 +1174,217 @@
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="2:8">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="34" spans="2:8">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="34" spans="2:8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="34" spans="2:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" ht="17" spans="2:8">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>深入理解 TCP 协议，24 总结</t>
-  </si>
-  <si>
-    <t>学习 github 的搜索技巧</t>
-  </si>
-  <si>
-    <t>试用 VuePress</t>
   </si>
   <si>
     <t>待排任务：
@@ -108,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,7 +125,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +193,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -152,121 +259,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,199 +281,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,15 +492,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,27 +526,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -599,153 +561,179 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,13 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1113,7 +1098,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1157,7 +1142,7 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1174,217 +1159,213 @@
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="34" spans="2:8">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="34" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="34" spans="2:8">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" ht="17" spans="2:8">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -43,9 +43,6 @@
     <t>深入理解 TCP 协议，25 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，11 总结</t>
-  </si>
-  <si>
     <t>深入理解 TCP 协议，14 总结</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>深入理解 TCP 协议，26 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，12 总结</t>
-  </si>
-  <si>
     <t>深入理解 TCP 协议，15 总结</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>深入理解 TCP 协议，27 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，13 总结</t>
   </si>
   <si>
     <t>深入理解 TCP 协议，24 总结</t>
@@ -102,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,16 +107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,17 +122,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,8 +146,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -171,25 +172,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,65 +248,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,19 +278,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,31 +392,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,127 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +483,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +511,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -553,43 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +589,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1089,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1162,61 +1153,55 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" ht="34" spans="2:8">
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" ht="34" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1286,7 +1271,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26300" windowHeight="15660"/>
+    <workbookView windowWidth="22440" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -40,50 +40,53 @@
     <t>Sat</t>
   </si>
   <si>
+    <t xml:space="preserve"> 深入理解 TCP 协议，31 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，14 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，18 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，20 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，22 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，24 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，26 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，16 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，17 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，19 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，21 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，23 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，27 总结</t>
+  </si>
+  <si>
+    <t>扩展：尽可能的多向后看</t>
+  </si>
+  <si>
     <t>深入理解 TCP 协议，25 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，14 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，16 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，18 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，20 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，22 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，26 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，15 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，17 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，19 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，21 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，23 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，27 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，24 总结</t>
-  </si>
-  <si>
     <t>待排任务：
-1. 深入理解 TCP 协议，31 总结
+1.
 2. 深入理解 TCP 协议，32 总结
 3. 深入理解 TCP 协议，33 总结</t>
   </si>
@@ -93,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,6 +110,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,9 +133,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +216,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,121 +253,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,7 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,181 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,152 +586,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,9 +745,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1089,7 +1083,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1130,10 +1124,10 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1153,7 +1147,7 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1168,7 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1195,18 +1189,20 @@
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1250,107 +1246,107 @@
       <c r="H13" s="4"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22440" windowHeight="15660"/>
+    <workbookView windowWidth="30880" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve"> 深入理解 TCP 协议，31 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，14 总结</t>
-  </si>
-  <si>
     <t>深入理解 TCP 协议，18 总结</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>深入理解 TCP 协议，26 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，16 总结</t>
   </si>
   <si>
     <t>深入理解 TCP 协议，17 总结</t>
@@ -96,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,22 +121,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,8 +158,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -165,13 +204,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -180,7 +212,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,68 +247,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +263,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF84EE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,181 +281,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,15 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,21 +519,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,6 +540,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,158 +581,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +755,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,7 +1086,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1130,7 +1133,7 @@
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1148,56 +1151,51 @@
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" ht="34" spans="2:8">
       <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" ht="34" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -1267,7 +1265,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -43,46 +43,56 @@
     <t xml:space="preserve"> 深入理解 TCP 协议，31 总结</t>
   </si>
   <si>
+    <t>深入理解 TCP 协议，20 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，22 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，24 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，26 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，19 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，21 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，23 总结</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，27 总结</t>
+  </si>
+  <si>
+    <t>logback 配置文件的加载，实际使用哪个类进行打印，怎么实现打印到不同的目的地</t>
+  </si>
+  <si>
+    <t>深入理解 TCP 协议，25 总结</t>
+  </si>
+  <si>
     <t>深入理解 TCP 协议，18 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，20 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，22 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，24 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，26 总结</t>
-  </si>
-  <si>
     <t>深入理解 TCP 协议，17 总结</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，19 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，21 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，23 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，27 总结</t>
-  </si>
-  <si>
     <t>扩展：尽可能的多向后看</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，25 总结</t>
+    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样</t>
   </si>
   <si>
     <t>待排任务：
-1.
-2. 深入理解 TCP 协议，32 总结
-3. 深入理解 TCP 协议，33 总结</t>
+# logback
+1. logback 配置文件是由哪个类加载的
+2. 打印日志使用的是哪个类
+3. 怎么实现打印到不同的目的地的
+# 掘金小测：深入理解 TCP 协议：从原理到实战
+1. 深入理解 TCP 协议，32 总结
+2. 深入理解 TCP 协议，33 总结</t>
   </si>
 </sst>
 </file>
@@ -90,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,7 +131,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,8 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +199,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -165,90 +251,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +273,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF84EE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,181 +285,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +512,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,6 +532,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,39 +568,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -581,147 +576,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,23 +745,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,13 +1081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="8" width="13.140625" customWidth="1"/>
   </cols>
@@ -1130,13 +1128,13 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1147,210 +1145,374 @@
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="2:8">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="7" ht="34" spans="2:8">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="34" spans="2:8">
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+    </row>
+    <row r="8" ht="101" spans="2:8">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" ht="34" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" ht="34" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="34" spans="2:8">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" ht="34" spans="2:8">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="15" spans="11:17">
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="11:17">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="11:17">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="11:17">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="11:17">
+      <c r="K19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="11:17">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="11:17">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="11:17">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="11:17">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="11:17">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="11:17">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="11:17">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="11:17">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="11:17">
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="11:17">
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="11:17">
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="11:17">
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="11:17">
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="11:17">
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="11:17">
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="11:17">
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="11:17">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="11:17">
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="11:17">
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="11:17">
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="11:17">
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="11:17">
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="11:17">
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="11:17">
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B19:H27"/>
-    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="K19:Q43"/>
+    <mergeCell ref="K15:Q18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整</t>
   </si>
@@ -40,59 +40,33 @@
     <t>Sat</t>
   </si>
   <si>
-    <t xml:space="preserve"> 深入理解 TCP 协议，31 总结</t>
+    <t>- 总结 17 需要看什么</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，20 总结</t>
+    <t>主动加载 loggback 配置文件的日志</t>
   </si>
   <si>
-    <t>深入理解 TCP 协议，22 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，24 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，26 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，19 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，21 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，23 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，27 总结</t>
-  </si>
-  <si>
-    <t>logback 配置文件的加载，实际使用哪个类进行打印，怎么实现打印到不同的目的地</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，25 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，18 总结</t>
-  </si>
-  <si>
-    <t>深入理解 TCP 协议，17 总结</t>
-  </si>
-  <si>
-    <t>扩展：尽可能的多向后看</t>
-  </si>
-  <si>
-    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样</t>
+    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
   </si>
   <si>
     <t>待排任务：
 # logback
-1. logback 配置文件是由哪个类加载的
-2. 打印日志使用的是哪个类
-3. 怎么实现打印到不同的目的地的
+- 怎么实现打印到不同的目的地的
 # 掘金小测：深入理解 TCP 协议：从原理到实战
-1. 深入理解 TCP 协议，32 总结
-2. 深入理解 TCP 协议，33 总结</t>
+- 深入理解 TCP 协议，17 总结
+- 深入理解 TCP 协议，18 总结
+- 深入理解 TCP 协议，19 总结
+- 深入理解 TCP 协议，20 总结
+- 深入理解 TCP 协议，21 总结
+- 深入理解 TCP 协议，22 总结
+- 深入理解 TCP 协议，23 总结
+- 深入理解 TCP 协议，24 总结
+- 深入理解 TCP 协议，25 总结
+- 深入理解 TCP 协议，26 总结
+- 深入理解 TCP 协议，27 总结
+- 深入理解 TCP 协议，31 总结
+- 深入理解 TCP 协议，32 总结
+- 深入理解 TCP 协议，33 总结</t>
   </si>
 </sst>
 </file>
@@ -101,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,20 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,6 +112,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -160,105 +225,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +247,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF84EE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,19 +265,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,145 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,9 +494,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,21 +514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,11 +535,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,8 +545,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,142 +570,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +729,9 @@
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1081,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:Q43"/>
+  <dimension ref="B1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1137,7 +1120,7 @@
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1145,83 +1128,59 @@
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="2:8">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="2:8">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="51" spans="2:8">
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="101" spans="2:8">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="2:8">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="34" spans="2:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="34" spans="2:8">
+    <row r="11" spans="2:8">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -1244,275 +1203,563 @@
       <c r="H13" s="3"/>
     </row>
     <row r="15" spans="11:17">
-      <c r="K15" s="5" t="s">
-        <v>22</v>
+      <c r="K15" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="11:17">
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="11:17">
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="11:17">
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="11:17">
-      <c r="K19" s="6" t="s">
-        <v>23</v>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="11:17">
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="11:17">
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="11:17">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="11:17">
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="11:17">
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="11:17">
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="11:17">
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="11:17">
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="11:17">
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="11:17">
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="11:17">
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="11:17">
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="11:17">
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="11:17">
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="11:17">
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="11:17">
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="11:17">
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="11:17">
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="11:17">
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="11:17">
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="11:17">
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="11:17">
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="11:17">
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="11:17">
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="11:17">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="11:17">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="11:17">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="11:17">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="11:17">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="11:17">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="11:17">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="11:17">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="11:17">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="11:17">
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="11:17">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="11:17">
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="11:17">
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="11:17">
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="11:17">
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="11:17">
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="11:17">
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="11:17">
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="11:17">
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="11:17">
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="11:17">
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="11:17">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="11:17">
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+    </row>
+    <row r="67" spans="11:17">
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="11:17">
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="11:17">
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="11:17">
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="11:17">
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="11:17">
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="11:17">
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="11:17">
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" spans="11:17">
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H3"/>
-    <mergeCell ref="K19:Q43"/>
     <mergeCell ref="K15:Q18"/>
+    <mergeCell ref="K19:Q75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>主动加载 loggback 配置文件的日志</t>
+  </si>
+  <si>
+    <t>实现 hugo 生成日志模版脚本</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -1055,7 +1058,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1135,12 +1138,14 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" ht="34" spans="2:8">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8">
@@ -1190,7 +1195,7 @@
     </row>
     <row r="15" spans="11:17">
       <c r="K15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1228,7 +1233,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Sun</t>
   </si>
@@ -40,10 +40,7 @@
     <t>- 总结 17 需要看什么</t>
   </si>
   <si>
-    <t>主动加载 loggback 配置文件的日志</t>
-  </si>
-  <si>
-    <t>实现 hugo 生成日志模版脚本</t>
+    <t>实现 hugo 生成日志模版脚本 python 版本</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -74,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,6 +82,73 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,7 +161,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,103 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -215,22 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -253,79 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,102 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +455,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,26 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,24 +538,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,148 +561,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1055,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1138,14 +1135,11 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="34" spans="2:8">
+    <row r="8" spans="2:8">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8">
@@ -1195,7 +1189,7 @@
     </row>
     <row r="15" spans="11:17">
       <c r="K15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1233,7 +1227,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -37,7 +37,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>总结 17 需要看什么，根据他所说的做起步，然后在它的基础上扩展知识点，不然知识点太少，太零散</t>
+    <t>TIME_WAIT 解决了什么问题，带来了什么问题，它带来的问题怎么解决</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -68,15 +68,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,6 +174,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,25 +183,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,82 +225,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -247,19 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,163 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +472,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -482,36 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,148 +558,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +1052,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1117,18 +1117,18 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="84" spans="2:8">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="3"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -37,7 +37,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>TIME_WAIT 解决了什么问题，带来了什么问题，它带来的问题怎么解决</t>
+    <t>FutureTask 在什么场景下使用，解决了什么问题</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -82,6 +82,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -91,6 +107,105 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,127 +219,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -253,31 +253,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,102 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,37 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,36 +452,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +480,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -531,16 +516,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,118 +558,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,28 +678,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +1052,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="2:8">
+    <row r="6" ht="20" customHeight="1" spans="2:8">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1119,16 +1119,16 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="84" spans="2:8">
-      <c r="B7" s="3"/>
+    <row r="7" ht="68" spans="2:8">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="3"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>Sun</t>
   </si>
@@ -37,12 +37,9 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>FutureTask 在什么场景下使用，解决了什么问题</t>
-  </si>
-  <si>
     <t>* 蓝绿发布
 * 灰度发布
-* TCP 中的 7 个定时器</t>
+* FutureTask 有哪些功能可以使用，这些功能是怎样实现的</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -73,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,6 +81,128 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,105 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,30 +227,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,61 +249,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,109 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +497,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -517,15 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,162 +555,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -718,14 +715,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1060,7 +1057,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1099,7 +1096,7 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1114,87 +1111,85 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="68" spans="2:8">
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="101" spans="2:8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="15" spans="11:17">
       <c r="K15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1232,7 +1227,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Sun</t>
   </si>
@@ -37,15 +37,25 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>* 蓝绿发布
-* 灰度发布
-* FutureTask 有哪些功能可以使用，这些功能是怎样实现的</t>
+    <t>FutureTask 有哪些功能可以使用，这些功能是怎样实现的</t>
+  </si>
+  <si>
+    <t>第二模块 ：微服务配置中心Apollo架构和实践</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
   </si>
   <si>
     <t>待排任务：
+# 极客时间：微服务架构实战 160 讲
+- 第一模块 ：微服务安全架构与实践
+- 第三模块 ：微服务网关Zuul架构和实践
+- 第四模块 ：微服务调用链监控CAT架构和实践
+- 第五模块 ：微服务容错限流Hystrix架构和实践
+- 第六模块 ：微服务注册发现Eureka Ribbon架构和实践
+- 第七模块 ：微服务监控告警Prometheus架构和实践
+- 第八模块 ： 构建OAuth2服务器 - Golang语言实现
+- 第九模块：微服务架构综合案例分析
 # logback
 - 怎么实现打印到不同的目的地的
 # 掘金小测：深入理解 TCP 协议：从原理到实战
@@ -59,10 +69,13 @@
 - 深入理解 TCP 协议，24 总结
 - 深入理解 TCP 协议，25 总结
 - 深入理解 TCP 协议，26 总结
-- 深入理解 TCP 协议，27 总结
 - 深入理解 TCP 协议，31 总结
 - 深入理解 TCP 协议，32 总结
-- 深入理解 TCP 协议，33 总结</t>
+- 深入理解 TCP 协议，33 总结
+- ICMP 协议看 RFC 760、777、792
+- 他所说的 IP 包的分片实在是看不懂，只是知道有这个东西
+- MTU 与 MSS 的奥秘还需要再看一遍
+- tcp_tw_recyle 技术为什么会因为 net 出现影响呢？虽然 IP 相同，但是 端口不同啊</t>
   </si>
 </sst>
 </file>
@@ -70,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,6 +94,142 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,142 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -249,31 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,151 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,21 +467,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,21 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,153 +529,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1070,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1124,7 +1137,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="101" spans="2:8">
+    <row r="7" ht="68" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -1135,9 +1148,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" ht="68" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" s="4"/>
@@ -1189,7 +1204,7 @@
     </row>
     <row r="15" spans="11:17">
       <c r="K15" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -1227,7 +1242,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -37,7 +37,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>WeakReference 有什么作用，他是怎么实现这个作用的</t>
+    <t>Java 引用按照 https://www.iteye.com/topic/401478 所说的整理一遍</t>
   </si>
   <si>
     <t>AtomicReference 有什么作用，他是怎么实现这个效果的</t>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,13 +126,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -141,13 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -156,6 +142,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,17 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,14 +220,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,37 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,109 +274,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,66 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,32 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,135 +559,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -711,7 +711,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,7 +1073,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1140,7 +1140,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" ht="65" spans="2:8">
+    <row r="7" ht="79" spans="2:8">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -1167,7 +1167,9 @@
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -62,6 +62,8 @@
 - 第七模块 ：微服务监控告警Prometheus架构和实践
 - 第八模块 ： 构建OAuth2服务器 - Golang语言实现
 - 第九模块：微服务架构综合案例分析
+# 数据库
+- 数据库优化
 # logback
 - 怎么实现打印到不同的目的地的
 # 掘金小测：深入理解 TCP 协议：从原理到实战
@@ -89,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,10 +121,100 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,26 +226,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,81 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,13 +276,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,31 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,115 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +479,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,21 +543,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -527,15 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,159 +576,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="B1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Sun</t>
   </si>
@@ -37,19 +37,18 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>Java 引用按照 https://www.iteye.com/topic/401478 所说的整理一遍</t>
+    <t>第三模块 ：微服务网关Zuul架构和实践</t>
   </si>
   <si>
-    <t>AtomicReference 有什么作用，他是怎么实现这个效果的</t>
-  </si>
-  <si>
-    <t>第三模块 ：微服务网关Zuul架构和实践</t>
+    <t>Java 引用按照 https://www.iteye.com/topic/401478 所说的整理一遍</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
   </si>
   <si>
     <t>待排任务：
+# Hystrix
+- 它里面命令模式的实现方式和使用方式
 # Spring
 - Spring 官方文档通读
 # Spring Boot
@@ -91,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,6 +119,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -128,126 +241,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -270,175 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +474,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +512,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -559,15 +528,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,15 +536,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,130 +592,130 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,11 +735,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1074,8 +1073,8 @@
   <sheetPr/>
   <dimension ref="B1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1117,10 +1116,10 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1134,87 +1133,84 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:8">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" ht="79" spans="2:8">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="51" spans="2:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" ht="65" spans="2:8">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="79" spans="2:8">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" ht="51" spans="2:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="15" spans="11:17">
       <c r="K15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1252,7 +1248,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -37,10 +37,10 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>第三模块 ：微服务网关Zuul架构和实践</t>
+    <t>z</t>
   </si>
   <si>
-    <t>Java 引用按照 https://www.iteye.com/topic/401478 所说的整理一遍</t>
+    <t>第三模块 ：微服务网关Zuul架构和实践</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,8 +112,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +149,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -135,9 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,15 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,80 +247,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -269,31 +269,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,49 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,31 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,61 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,15 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,6 +498,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,156 +575,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,10 +1071,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:Q75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1132,7 +1132,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="2:8">
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1141,25 +1144,19 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="51" spans="2:8">
+    <row r="7" spans="2:8">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="79" spans="2:8">
+    <row r="8" spans="2:8">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -1172,12 +1169,14 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" ht="51" spans="2:8">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="15000"/>
+    <workbookView windowWidth="25740" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>z</t>
+    <t>第五模块 ：微服务容错限流Hystrix架构和实践</t>
   </si>
   <si>
-    <t>第三模块 ：微服务网关Zuul架构和实践</t>
+    <t>小王子第二章</t>
   </si>
   <si>
-    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确</t>
+    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
   </si>
   <si>
     <t>待排任务：
@@ -55,8 +55,6 @@
 - Spring Boot 官方文档通读
 # 极客时间：微服务架构实战 160 讲
 - 第一模块 ：微服务安全架构与实践
-- 第四模块 ：微服务调用链监控CAT架构和实践
-- 第五模块 ：微服务容错限流Hystrix架构和实践
 - 第六模块 ：微服务注册发现Eureka Ribbon架构和实践
 - 第七模块 ：微服务监控告警Prometheus架构和实践
 - 第八模块 ： 构建OAuth2服务器 - Golang语言实现
@@ -91,8 +89,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -112,6 +110,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -120,27 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -149,6 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -157,96 +239,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -257,13 +255,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF84EE8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF84EE8E"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +309,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,139 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,11 +476,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,30 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,26 +550,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,142 +578,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,11 +733,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1071,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="B1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1113,104 +1111,126 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" customHeight="1" spans="2:8">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="68" spans="2:8">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" ht="51" spans="2:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="17" spans="2:8">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="15" spans="11:17">
-      <c r="K15" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="11:17">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="11:17">
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -1763,8 +1783,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H3"/>
-    <mergeCell ref="K15:Q18"/>
     <mergeCell ref="K19:Q75"/>
+    <mergeCell ref="K12:Q18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>小王子第二章</t>
+  </si>
+  <si>
+    <t>小王子第三章</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -88,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,20 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -132,8 +121,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +167,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -155,16 +190,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,59 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -240,7 +236,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,46 +498,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +529,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -578,142 +581,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,7 +1075,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1140,28 +1143,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" ht="68" spans="2:8">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" ht="17" spans="2:8">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" ht="17" spans="2:8">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1195,7 +1200,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1267,7 +1272,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Sun</t>
   </si>
@@ -40,16 +40,16 @@
     <t>第五模块 ：微服务容错限流Hystrix架构和实践</t>
   </si>
   <si>
-    <t>小王子第二章</t>
-  </si>
-  <si>
-    <t>小王子第三章</t>
+    <t>《微服务设计》</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
   </si>
   <si>
     <t>待排任务：
+# 书籍
+2. 《领域驱动设计》
+3. 《六边形架构理论》
 # Hystrix
 - 它里面命令模式的实现方式和使用方式
 # Spring
@@ -91,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -114,8 +114,97 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,13 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,88 +242,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -258,13 +258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF84EE8E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,181 +282,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,22 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,24 +550,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,147 +567,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,7 +1075,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1117,19 +1117,19 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1147,7 +1147,9 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1162,11 +1164,9 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="17" spans="2:8">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1200,7 +1200,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>《微服务设计》</t>
+  </si>
+  <si>
+    <t>future 的取消效果是怎么实现的</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -91,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +105,82 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,6 +192,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -122,7 +208,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,29 +238,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -174,80 +251,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -270,13 +273,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,61 +381,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,97 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,15 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,6 +493,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +536,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,171 +579,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1078,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1114,10 +1117,10 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1144,30 +1147,30 @@
     </row>
     <row r="7" ht="68" spans="2:8">
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" ht="17" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" ht="34" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1200,7 +1203,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Sun</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>《微服务设计》</t>
-  </si>
-  <si>
-    <t>future 的取消效果是怎么实现的</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -94,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,8 +105,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +135,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,19 +228,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,89 +248,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -273,13 +270,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +354,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,37 +402,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,109 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +498,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -517,6 +538,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,43 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +581,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1075,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K19" sqref="K19:Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1165,12 +1162,10 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" ht="34" spans="2:8">
+    <row r="9" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1203,7 +1198,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1275,7 +1270,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>《微服务设计》</t>
+  </si>
+  <si>
+    <t>开启词汇解析项目，项目采用责任链模式实现</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -91,10 +94,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +105,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,22 +132,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,6 +153,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -152,7 +215,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -163,14 +234,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,72 +245,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -270,13 +273,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,169 +411,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,21 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,17 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -568,6 +545,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -581,118 +584,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,28 +704,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,11 +739,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1075,7 +1078,7 @@
   <dimension ref="B1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:Q75"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1117,10 +1120,10 @@
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1134,71 +1137,73 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:8">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" ht="68" spans="2:8">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" ht="17" spans="2:8">
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="51" spans="2:8">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="K12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1208,13 +1213,13 @@
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1270,7 +1275,7 @@
     </row>
     <row r="19" spans="11:17">
       <c r="K19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Sun</t>
   </si>
@@ -43,10 +43,15 @@
     <t>《微服务设计》</t>
   </si>
   <si>
-    <t>开启词汇解析项目，项目采用责任链模式实现</t>
+    <t>google 的库词汇转换是怎么实现的</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
+  </si>
+  <si>
+    <t># 指环王
+1. 保持专注，不被自己的浮躁所打扰
+2. 维持作息，8:00-11:00, 13:00-18:00, 19:00-21:00 时间内学习, 22:00-6:00 时间内睡觉</t>
   </si>
   <si>
     <t>待排任务：
@@ -94,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,31 +113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +128,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -154,30 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +188,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -222,18 +211,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,10 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,13 +278,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,37 +320,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,127 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +507,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,147 +575,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +755,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:Q75"/>
+  <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1123,10 +1134,10 @@
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1149,7 +1160,8 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="3"/>
@@ -1158,30 +1170,30 @@
     <row r="8" ht="17" spans="2:8">
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="51" spans="2:8">
+    <row r="9" spans="2:8">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" ht="51" spans="2:8">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -1194,7 +1206,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:24">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1211,8 +1223,16 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="S12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="2:24">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1227,8 +1247,14 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="11:17">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+    </row>
+    <row r="14" spans="11:24">
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -1236,8 +1262,14 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="11:17">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="11:24">
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1245,8 +1277,14 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="11:17">
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="11:24">
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -1254,8 +1292,14 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="11:17">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17" spans="11:24">
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -1263,8 +1307,14 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="11:17">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+    </row>
+    <row r="18" spans="11:24">
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -1272,10 +1322,16 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="11:17">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+    </row>
+    <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1283,8 +1339,14 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="11:17">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="11:24">
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1292,8 +1354,14 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="11:17">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="11:24">
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -1301,8 +1369,14 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="11:17">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+    </row>
+    <row r="22" spans="11:24">
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -1310,8 +1384,14 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="11:17">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="11:24">
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1319,8 +1399,14 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="11:17">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+    </row>
+    <row r="24" spans="11:24">
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -1328,8 +1414,14 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="11:17">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+    </row>
+    <row r="25" spans="11:24">
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -1337,8 +1429,14 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="11:17">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+    </row>
+    <row r="26" spans="11:24">
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1346,8 +1444,14 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="11:17">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+    </row>
+    <row r="27" spans="11:24">
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1355,8 +1459,14 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="11:17">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28" spans="11:24">
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -1364,6 +1474,12 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
     </row>
     <row r="29" spans="11:17">
       <c r="K29" s="6"/>
@@ -1789,10 +1905,11 @@
       <c r="Q75" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="K19:Q75"/>
     <mergeCell ref="K12:Q18"/>
+    <mergeCell ref="S12:X28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -43,21 +43,20 @@
     <t>《微服务设计》</t>
   </si>
   <si>
-    <t>google 的库词汇转换是怎么实现的</t>
-  </si>
-  <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
   </si>
   <si>
-    <t># 指环王
+    <t xml:space="preserve"># 指环王
 1. 保持专注，不被自己的浮躁所打扰
-2. 维持作息，8:00-11:00, 13:00-18:00, 19:00-21:00 时间内学习, 22:00-6:00 时间内睡觉</t>
+2. 维持作息，8:00-11:00, 13:00-18:00, 19:00-21:00 时间内学习, 22:00-6:00 时间内睡觉
+</t>
   </si>
   <si>
     <t>待排任务：
 # 书籍
 2. 《领域驱动设计》
 3. 《六边形架构理论》
+注：看英语语法的时候想办法将其结合到程序里面来
 # Hystrix
 - 它里面命令模式的实现方式和使用方式
 # Spring
@@ -100,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,23 +112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,14 +135,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -158,16 +142,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,15 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -218,11 +227,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,27 +242,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,43 +277,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,139 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +530,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,183 +577,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1088,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="J23 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1186,14 +1182,12 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="51" spans="2:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -1215,7 +1209,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1223,14 +1217,14 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="S12" s="7" t="s">
-        <v>11</v>
+      <c r="S12" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="3"/>
@@ -1247,12 +1241,12 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
     </row>
     <row r="14" spans="11:24">
       <c r="K14" s="5"/>
@@ -1262,12 +1256,12 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
     </row>
     <row r="15" spans="11:24">
       <c r="K15" s="5"/>
@@ -1277,12 +1271,12 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
     </row>
     <row r="16" spans="11:24">
       <c r="K16" s="5"/>
@@ -1292,12 +1286,12 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
     </row>
     <row r="17" spans="11:24">
       <c r="K17" s="5"/>
@@ -1307,12 +1301,12 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
     </row>
     <row r="18" spans="11:24">
       <c r="K18" s="5"/>
@@ -1322,16 +1316,16 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
     </row>
     <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1339,12 +1333,12 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
     </row>
     <row r="20" spans="11:24">
       <c r="K20" s="6"/>
@@ -1354,12 +1348,12 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
     </row>
     <row r="21" spans="11:24">
       <c r="K21" s="6"/>
@@ -1369,12 +1363,12 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
     </row>
     <row r="22" spans="11:24">
       <c r="K22" s="6"/>
@@ -1384,12 +1378,12 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
     </row>
     <row r="23" spans="11:24">
       <c r="K23" s="6"/>
@@ -1399,12 +1393,12 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
     </row>
     <row r="24" spans="11:24">
       <c r="K24" s="6"/>
@@ -1414,12 +1408,12 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
     </row>
     <row r="25" spans="11:24">
       <c r="K25" s="6"/>
@@ -1429,12 +1423,12 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
     </row>
     <row r="26" spans="11:24">
       <c r="K26" s="6"/>
@@ -1444,12 +1438,12 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
     </row>
     <row r="27" spans="11:24">
       <c r="K27" s="6"/>
@@ -1459,12 +1453,12 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
     </row>
     <row r="28" spans="11:24">
       <c r="K28" s="6"/>
@@ -1474,12 +1468,12 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
     </row>
     <row r="29" spans="11:17">
       <c r="K29" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Sun</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>第五模块 ：微服务容错限流Hystrix架构和实践</t>
+    <t>确定下来 烟酰胺，vc，水杨酸，维 A 醇 双十二买哪些以及哪种品牌</t>
   </si>
   <si>
     <t>《微服务设计》</t>
+  </si>
+  <si>
+    <t>SpringMVC 源码</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -98,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,16 +115,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +131,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -150,31 +146,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -190,7 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +184,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,21 +246,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -243,14 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +268,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF84EE8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF84EE8E"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,163 +436,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +489,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,6 +513,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -512,50 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,153 +571,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -743,11 +746,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
@@ -1084,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="J23 G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1124,92 +1127,93 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:8">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" ht="68" spans="2:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="84" spans="2:8">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" ht="17" spans="2:8">
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="17" spans="2:8">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="34" spans="2:8">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1218,7 +1222,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="S12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1227,13 +1231,13 @@
       <c r="X12" s="7"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -1325,7 +1329,7 @@
     </row>
     <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="16620"/>
+    <workbookView windowWidth="29840" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>Sun</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>读写锁</t>
   </si>
   <si>
     <t>确定下来 烟酰胺，vc，水杨酸，维 A 醇 双十二买哪些以及哪种品牌</t>
@@ -101,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,16 +134,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,24 +165,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,24 +195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +211,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,10 +241,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +289,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,15 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,36 +507,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -566,8 +534,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,144 +569,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,7 +1091,7 @@
   <dimension ref="B1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1155,9 +1158,11 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" ht="17" spans="2:8">
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1165,8 +1170,9 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" ht="84" spans="2:8">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1174,10 +1180,10 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" ht="17" spans="2:8">
-      <c r="B9" s="4" t="s">
-        <v>8</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
       </c>
-      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1185,10 +1191,10 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="34" spans="2:8">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
       </c>
-      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1213,7 +1219,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1222,7 +1228,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="S12" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1329,7 +1335,7 @@
     </row>
     <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -126,8 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,25 +157,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,15 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +228,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,42 +255,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -283,13 +283,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,169 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,24 +509,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,13 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,142 +594,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,7 +1091,7 @@
   <dimension ref="B1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>Sun</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>读写锁</t>
-  </si>
-  <si>
-    <t>确定下来 烟酰胺，vc，水杨酸，维 A 醇 双十二买哪些以及哪种品牌</t>
   </si>
   <si>
     <t>《微服务设计》</t>
@@ -104,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -126,24 +123,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,34 +145,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,31 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,14 +183,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +219,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -283,187 +280,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,32 +485,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +522,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -580,156 +586,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1169,11 +1166,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="84" spans="2:8">
+    <row r="8" spans="2:8">
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" s="4"/>
@@ -1182,7 +1177,7 @@
     <row r="9" ht="17" spans="2:8">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1193,7 +1188,7 @@
     <row r="10" ht="34" spans="2:8">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1219,7 +1214,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1228,7 +1223,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="S12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1335,7 +1330,7 @@
     </row>
     <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>Sun</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>读写锁</t>
-  </si>
-  <si>
     <t>《微服务设计》</t>
   </si>
   <si>
-    <t>SpringMVC 源码</t>
+    <t>《Spring 揭秘》</t>
   </si>
   <si>
     <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
@@ -1088,7 +1085,7 @@
   <dimension ref="B1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1157,39 +1154,37 @@
     </row>
     <row r="7" ht="17" spans="2:8">
       <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" ht="34" spans="2:8">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" ht="17" spans="2:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" ht="34" spans="2:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1214,7 +1209,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="K12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1223,7 +1218,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="S12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
@@ -1330,7 +1325,7 @@
     </row>
     <row r="19" spans="11:24">
       <c r="K19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -43,12 +43,12 @@
     <t>《Spring 揭秘》</t>
   </si>
   <si>
-    <t>备注：以后每周的计划提前排好，如果遇到意外情况再调整。集中学习和总结的时候必须是目标非常明确的，需要懂什么，这样才能够非常明确，同时，既然是学习，所以要尽可能找系统的学习资料，如果缺少前置的知识，前置的知识也要一并补上。</t>
+    <t>备注：这段时间的学习计划是怎么来的，主要是我想学英语语法，将英语语法转化成为程序代码，但是这里面需要依赖数据库，而数据库依赖 mybatis，mybatis 直接用并不优雅我就想用 spring 整合，但是 mybatis-spring 项目又依赖于 spring，所以最终我便开始先看 spring 揭秘，看完在转头过去看接缝项目</t>
   </si>
   <si>
     <t xml:space="preserve"># 指环王
 1. 保持专注，不被自己的浮躁所打扰
-2. 维持作息，8:00-11:00, 13:00-18:00, 19:00-21:00 时间内学习, 22:00-6:00 时间内睡觉
+2. 维持作息，如果累了就立刻休息
 </t>
   </si>
   <si>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,24 +121,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,10 +135,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,27 +159,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,11 +188,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,17 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,15 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,42 +490,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,30 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -583,147 +539,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -54,43 +54,19 @@
   <si>
     <t>待排任务：
 # 书籍
-2. 《领域驱动设计》
-3. 《六边形架构理论》
+- 《Spring 揭秘》
+- 《微服务设计》
+- 《英语语法新思维-初级》
+- 《高性能 Mysql》
+- 《Java 8 虚拟机规范》
+- 《领域驱动设计》
+- 《六边形架构理论》
 注：看英语语法的时候想办法将其结合到程序里面来
-# Hystrix
-- 它里面命令模式的实现方式和使用方式
-# Spring
-- Spring 官方文档通读
-# Spring Boot
-- Spring Boot 官方文档通读
-# 极客时间：微服务架构实战 160 讲
-- 第一模块 ：微服务安全架构与实践
-- 第六模块 ：微服务注册发现Eureka Ribbon架构和实践
-- 第七模块 ：微服务监控告警Prometheus架构和实践
-- 第八模块 ： 构建OAuth2服务器 - Golang语言实现
-- 第九模块：微服务架构综合案例分析
 # 数据库
-- 数据库优化
-# logback
-- 怎么实现打印到不同的目的地的
-# 掘金小测：深入理解 TCP 协议：从原理到实战
-- 深入理解 TCP 协议，17 总结
-- 深入理解 TCP 协议，18 总结
-- 深入理解 TCP 协议，19 总结
-- 深入理解 TCP 协议，20 总结
-- 深入理解 TCP 协议，21 总结
-- 深入理解 TCP 协议，22 总结
-- 深入理解 TCP 协议，23 总结
-- 深入理解 TCP 协议，24 总结
-- 深入理解 TCP 协议，25 总结
-- 深入理解 TCP 协议，26 总结
-- 深入理解 TCP 协议，31 总结
-- 深入理解 TCP 协议，32 总结
-- 深入理解 TCP 协议，33 总结
-- ICMP 协议看 RFC 760、777、792
-- 他所说的 IP 包的分片实在是看不懂，只是知道有这个东西
-- MTU 与 MSS 的奥秘还需要再看一遍
-- tcp_tw_recyle 技术为什么会因为 net 出现影响呢？虽然 IP 相同，但是 端口不同啊</t>
+- 数据库优化策略
+# Spring 源码中需要整理的部分
+1. BeanPostProcessor 整理使用方式和源码
+2. BeanFactoryPostProcessor 整理使用方式和源码</t>
   </si>
 </sst>
 </file>
@@ -99,9 +75,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,14 +97,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,24 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,67 +218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,13 +231,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -277,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,30 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -521,6 +473,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,29 +512,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,142 +564,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,8 +1060,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29840" windowHeight="16620"/>
+    <workbookView windowHeight="17140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,8 @@
 - 数据库优化策略
 # Spring 源码中需要整理的部分
 1. BeanPostProcessor 整理使用方式和源码
-2. BeanFactoryPostProcessor 整理使用方式和源码</t>
+2. BeanFactoryPostProcessor 整理使用方式和源码
+3. Spring bean 的生命周期看一两个帖子总结</t>
   </si>
 </sst>
 </file>
@@ -75,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -96,20 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -118,6 +105,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -126,37 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -165,13 +203,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -180,24 +212,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,24 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,37 +254,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +368,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,36 +422,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,91 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,11 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,142 +565,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,8 +1061,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -43,7 +43,8 @@
     <t>《Spring 揭秘》</t>
   </si>
   <si>
-    <t>备注：这段时间的学习计划是怎么来的，主要是我想学英语语法，将英语语法转化成为程序代码，但是这里面需要依赖数据库，而数据库依赖 mybatis，mybatis 直接用并不优雅我就想用 spring 整合，但是 mybatis-spring 项目又依赖于 spring，所以最终我便开始先看 spring 揭秘，看完在转头过去看接缝项目</t>
+    <t>备注：这段时间的学习计划是怎么来的，主要是我想学英语语法，将英语语法转化成为程序代码，但是这里面需要依赖数据库，而数据库依赖 mybatis，mybatis 直接用并不优雅我就想用 spring 整合，但是 mybatis-spring 项目又依赖于 spring，所以最终我便开始先看 spring 揭秘，看完在转头过去看接缝项目
+看书的时候一个字一个字的看，看到某个地方不懂可以忽视挫败感，接着向后看即可，如果看到某个地方发现是前面的内容没理解透，可以返回前面复习一遍</t>
   </si>
   <si>
     <t xml:space="preserve"># 指环王
@@ -75,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,15 +106,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,24 +129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,15 +145,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,29 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,181 +261,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +489,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -502,17 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +532,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,158 +561,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,7 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,9 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1062,7 +1060,7 @@
   <dimension ref="B1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="S12" sqref="S12:X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1140,7 +1138,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" ht="34" spans="2:8">
+    <row r="8" ht="34" spans="2:17">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1149,8 +1147,17 @@
         <v>8</v>
       </c>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1158,8 +1165,15 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1167,8 +1181,15 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1176,6 +1197,13 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="2:24">
       <c r="B12" s="4"/>
@@ -1185,23 +1213,21 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="K12" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="4"/>
@@ -1218,12 +1244,12 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
     </row>
     <row r="14" spans="11:24">
       <c r="K14" s="5"/>
@@ -1233,12 +1259,12 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
     </row>
     <row r="15" spans="11:24">
       <c r="K15" s="5"/>
@@ -1248,12 +1274,12 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
     </row>
     <row r="16" spans="11:24">
       <c r="K16" s="5"/>
@@ -1263,12 +1289,12 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
     </row>
     <row r="17" spans="11:24">
       <c r="K17" s="5"/>
@@ -1278,12 +1304,12 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
     </row>
     <row r="18" spans="11:24">
       <c r="K18" s="5"/>
@@ -1293,594 +1319,594 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
     </row>
     <row r="19" spans="11:24">
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
     </row>
     <row r="20" spans="11:24">
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
     </row>
     <row r="21" spans="11:24">
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
     </row>
     <row r="22" spans="11:24">
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
     </row>
     <row r="23" spans="11:24">
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
     </row>
     <row r="24" spans="11:24">
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="11:24">
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
     </row>
     <row r="26" spans="11:24">
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
     </row>
     <row r="27" spans="11:24">
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
     </row>
     <row r="28" spans="11:24">
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
     <row r="29" spans="11:17">
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="11:17">
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="11:17">
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="11:17">
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="11:17">
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="11:17">
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="11:17">
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="11:17">
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="11:17">
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="11:17">
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="11:17">
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="11:17">
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="11:17">
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="11:17">
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="11:17">
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="11:17">
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="11:17">
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="11:17">
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="11:17">
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="11:17">
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="11:17">
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="11:17">
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="11:17">
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="11:17">
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="11:17">
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" spans="11:17">
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="11:17">
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="11:17">
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="11:17">
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="11:17">
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="11:17">
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="11:17">
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61" spans="11:17">
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62" spans="11:17">
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="11:17">
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="11:17">
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="11:17">
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="11:17">
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="11:17">
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="11:17">
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
     </row>
     <row r="69" spans="11:17">
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
     </row>
     <row r="70" spans="11:17">
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="11:17">
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
     </row>
     <row r="72" spans="11:17">
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="11:17">
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="11:17">
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="11:17">
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="K19:Q75"/>
-    <mergeCell ref="K12:Q18"/>
     <mergeCell ref="S12:X28"/>
+    <mergeCell ref="K8:Q18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>待排任务：
+# 项目
+- 智能提示单词的词性和相关含义
+- 智能提示词组的相关含义
 # 书籍
 - 《Spring 揭秘》
 - 《微服务设计》
@@ -76,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,7 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,23 +117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +133,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -152,46 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +165,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,14 +210,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,6 +467,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,22 +510,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,20 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,142 +569,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,8 +1062,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12:X28"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/tmp/class schedule.xlsx
+++ b/tmp/class schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17140"/>
+    <workbookView windowWidth="23560" windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,6 +68,7 @@
 注：看英语语法的时候想办法将其结合到程序里面来
 # 数据库
 - 数据库优化策略
+- 分库分表的原理和框架的使用
 # Spring 源码中需要整理的部分
 1. BeanPostProcessor 整理使用方式和源码
 2. BeanFactoryPostProcessor 整理使用方式和源码
@@ -79,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,40 +102,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,9 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,23 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +209,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,19 +259,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +367,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +468,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -484,24 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,32 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -569,142 +570,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,8 +1063,8 @@
   <sheetPr/>
   <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:Q75"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
